--- a/biology/Histoire de la zoologie et de la botanique/Médaille_internationale_de_Kew_Gardens/Médaille_internationale_de_Kew_Gardens.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Médaille_internationale_de_Kew_Gardens/Médaille_internationale_de_Kew_Gardens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_internationale_de_Kew_Gardens</t>
+          <t>Médaille_internationale_de_Kew_Gardens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La médaille internationale de Kew (en anglais, Kew International Medal), est décernée à des personnes qui ont apporté une contribution significative à la science et à la conservation des espèces végétales. Le prix est décerné pour la première fois en 1992, par le conseil d’administration de l'organisme public non ministériel de Kew Gardens.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_internationale_de_Kew_Gardens</t>
+          <t>Médaille_internationale_de_Kew_Gardens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,21 +524,23 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-2018 : Mary Robinson[1],[2]
-2017 : Juan Manuel Santos[3],[4],[5]
-2016: Sebsebe Demissew[6],[7]
-2015 : Kiat Wee Tan[8]
-2014 : Edward Osborne Wilson[8]
-2012 : Jared Diamond[9]
-2009: Peter H. Raven[8]
-2003 : Mary Grierson[8]
-2000 : Margaret Stones[8]
-1999 : Stella Ross-Craig[8]
-1996 : David Attenborough[8]
-1994 : Robert Sainsbury et Lisa Sainsbury[8]
+2018 : Mary Robinson,
+2017 : Juan Manuel Santos
+2016: Sebsebe Demissew,
+2015 : Kiat Wee Tan
+2014 : Edward Osborne Wilson
+2012 : Jared Diamond
+2009: Peter H. Raven
+2003 : Mary Grierson
+2000 : Margaret Stones
+1999 : Stella Ross-Craig
+1996 : David Attenborough
+1994 : Robert Sainsbury et Lisa Sainsbury
 </t>
         </is>
       </c>
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_internationale_de_Kew_Gardens</t>
+          <t>Médaille_internationale_de_Kew_Gardens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Critères d'attribution de la médaille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Participation à la conservation des espèces végétales ;
 Participation à l'information sur les plantes ;
